--- a/horarioUnificado_con_mofis_stats.xlsx
+++ b/horarioUnificado_con_mofis_stats.xlsx
@@ -714,8 +714,9 @@
   </sheetPr>
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
@@ -1706,9 +1707,9 @@
           <t>6T</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>6S</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -1817,14 +1818,14 @@
           <t>6T</t>
         </is>
       </c>
-      <c r="AC7" s="13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AD7" s="13" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="AC7" s="14" t="inlineStr">
+        <is>
+          <t>6S</t>
+        </is>
+      </c>
+      <c r="AD7" s="15" t="inlineStr">
+        <is>
+          <t>6N</t>
         </is>
       </c>
       <c r="AE7" s="11" t="inlineStr">
@@ -2264,14 +2265,14 @@
           <t>DESC</t>
         </is>
       </c>
-      <c r="AD10" s="15" t="inlineStr">
+      <c r="AD10" s="3" t="inlineStr">
+        <is>
+          <t>TROP</t>
+        </is>
+      </c>
+      <c r="AE10" s="15" t="inlineStr">
         <is>
           <t>6N</t>
-        </is>
-      </c>
-      <c r="AE10" s="3" t="inlineStr">
-        <is>
-          <t>TROP</t>
         </is>
       </c>
       <c r="AF10" t="n">
@@ -2294,9 +2295,9 @@
           <t>TROP</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
-        <is>
-          <t>6N</t>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2409,14 +2410,14 @@
           <t>6TT</t>
         </is>
       </c>
-      <c r="AD11" s="3" t="inlineStr">
-        <is>
-          <t>TROP</t>
-        </is>
-      </c>
-      <c r="AE11" s="15" t="inlineStr">
-        <is>
-          <t>6N</t>
+      <c r="AD11" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE11" s="3" t="inlineStr">
+        <is>
+          <t>TROP</t>
         </is>
       </c>
       <c r="AF11" s="14" t="inlineStr">
@@ -3151,9 +3152,9 @@
           <t>TROP</t>
         </is>
       </c>
-      <c r="G17" s="14" t="inlineStr">
-        <is>
-          <t>6S</t>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="H17" s="13" t="inlineStr">
@@ -3273,14 +3274,14 @@
           <t>TROP</t>
         </is>
       </c>
-      <c r="C18" s="14" t="inlineStr">
-        <is>
-          <t>6S</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>6N</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3413,104 +3414,104 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G19" s="13" t="inlineStr">
+      <c r="G19" s="14" t="inlineStr">
+        <is>
+          <t>6S</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>DESC</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>SIND</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>TROP</t>
+        </is>
+      </c>
+      <c r="L19" s="14" t="inlineStr">
+        <is>
+          <t>6S</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>BANTD</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>DESC</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>SIND</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>TROP</t>
+        </is>
+      </c>
+      <c r="R19" s="12" t="inlineStr">
+        <is>
+          <t>6T</t>
+        </is>
+      </c>
+      <c r="S19" s="15" t="inlineStr">
+        <is>
+          <t>6N</t>
+        </is>
+      </c>
+      <c r="U19" s="13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>DESC</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
+        <is>
+          <t>DESC</t>
+        </is>
+      </c>
+      <c r="W19" s="3" t="inlineStr">
+        <is>
+          <t>TROP</t>
+        </is>
+      </c>
+      <c r="X19" s="11" t="inlineStr">
+        <is>
+          <t>6R</t>
+        </is>
+      </c>
+      <c r="Y19" s="3" t="inlineStr">
         <is>
           <t>SIND</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>TROP</t>
-        </is>
-      </c>
-      <c r="L19" s="14" t="inlineStr">
-        <is>
-          <t>6S</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>BANTD</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>DESC</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>SIND</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>TROP</t>
-        </is>
-      </c>
-      <c r="R19" s="12" t="inlineStr">
-        <is>
-          <t>6T</t>
-        </is>
-      </c>
-      <c r="S19" s="15" t="inlineStr">
-        <is>
-          <t>6N</t>
-        </is>
-      </c>
-      <c r="U19" s="13" t="inlineStr">
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>6R</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>NANTD</t>
+        </is>
+      </c>
+      <c r="AB19" s="13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>DESC</t>
-        </is>
-      </c>
-      <c r="W19" s="3" t="inlineStr">
-        <is>
-          <t>TROP</t>
-        </is>
-      </c>
-      <c r="X19" s="11" t="inlineStr">
-        <is>
-          <t>6R</t>
-        </is>
-      </c>
-      <c r="Y19" s="3" t="inlineStr">
-        <is>
-          <t>SIND</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>6R</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>NANTD</t>
-        </is>
-      </c>
-      <c r="AB19" s="13" t="inlineStr">
+      <c r="AC19" s="13" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AC19" s="14" t="inlineStr">
-        <is>
-          <t>6S</t>
         </is>
       </c>
       <c r="AD19" s="3" t="inlineStr">
@@ -3684,12 +3685,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>6TT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>6MT</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>6TT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3998,12 +3999,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>6MT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>6TT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>6MT</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -4447,8 +4448,8 @@
           <t>TORRE (DIN)</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>3</v>
+      <c r="B26" t="e">
+        <v>#REF!</v>
       </c>
       <c r="C26" t="e">
         <v>#REF!</v>
@@ -4857,7 +4858,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -5149,16 +5150,16 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5309,16 +5310,16 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -5549,16 +5550,16 @@
         <v>3</v>
       </c>
       <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
-        <v>3</v>
-      </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -5592,10 +5593,10 @@
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -6294,6 +6295,22 @@
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
       <c r="G7" s="42" t="n"/>
+      <c r="H7" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="39" t="n"/>
+      <c r="L7" s="39" t="n"/>
+      <c r="M7" s="39" t="n"/>
+      <c r="N7" s="39" t="n"/>
+      <c r="O7" s="39" t="n"/>
+      <c r="P7" s="39" t="n"/>
+      <c r="Q7" s="39" t="n"/>
       <c r="R7" s="33">
         <f>SUM(B7:G7)+SUM(H7:Q7)</f>
         <v/>
@@ -6306,18 +6323,6 @@
         <f>R7+S7+AO7+AP7</f>
         <v/>
       </c>
-      <c r="U7" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="V7" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="W7" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="X7" s="40" t="n"/>
-      <c r="Y7" s="40" t="n"/>
-      <c r="Z7" s="40" t="n"/>
       <c r="AA7" s="43" t="n">
         <v>6</v>
       </c>
@@ -6619,12 +6624,8 @@
       <c r="J11" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="K11" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="39" t="n">
-        <v>6</v>
-      </c>
+      <c r="K11" s="39" t="n"/>
+      <c r="L11" s="39" t="n"/>
       <c r="M11" s="39" t="n"/>
       <c r="N11" s="39" t="n"/>
       <c r="O11" s="39" t="n"/>
@@ -6645,8 +6646,12 @@
       <c r="U11" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="V11" s="40" t="n"/>
-      <c r="W11" s="40" t="n"/>
+      <c r="V11" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" s="40" t="n">
+        <v>3</v>
+      </c>
       <c r="X11" s="40" t="n"/>
       <c r="Y11" s="40" t="n"/>
       <c r="Z11" s="40" t="n"/>
@@ -7127,9 +7132,7 @@
       <c r="J17" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="K17" s="39" t="n">
-        <v>6</v>
-      </c>
+      <c r="K17" s="39" t="n"/>
       <c r="L17" s="39" t="n"/>
       <c r="M17" s="39" t="n"/>
       <c r="N17" s="39" t="n"/>
@@ -7154,7 +7157,9 @@
       <c r="V17" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="W17" s="40" t="n"/>
+      <c r="W17" s="40" t="n">
+        <v>3</v>
+      </c>
       <c r="X17" s="40" t="n"/>
       <c r="Y17" s="40" t="n"/>
       <c r="Z17" s="40" t="n"/>
